--- a/src/test/resources/automation.xlsx
+++ b/src/test/resources/automation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/rafalst/IdeaProjects/SaveATrainAPI/src/test/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD39C10F-C176-6F43-906C-871E91107092}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC1E766-CCE6-EF4A-9ACC-6EF519600220}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1100" yWindow="820" windowWidth="28040" windowHeight="17400" xr2:uid="{E04001D1-FE3A-8E41-B744-DC84FFE0237C}"/>
   </bookViews>
@@ -410,7 +410,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +439,7 @@
         <v>4</v>
       </c>
       <c r="C2" s="1">
-        <v>45131</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -450,7 +450,7 @@
         <v>3</v>
       </c>
       <c r="C3" s="1">
-        <v>45131</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
@@ -461,7 +461,7 @@
         <v>6</v>
       </c>
       <c r="C4" s="1">
-        <v>45131</v>
+        <v>45138</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
@@ -472,7 +472,7 @@
         <v>5</v>
       </c>
       <c r="C5" s="1">
-        <v>45131</v>
+        <v>45138</v>
       </c>
     </row>
   </sheetData>
